--- a/Team-Data/2020-21/1-9-2020-21.xlsx
+++ b/Team-Data/2020-21/1-9-2020-21.xlsx
@@ -2234,16 +2234,16 @@
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T10" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U10" t="n">
         <v>23.9</v>
       </c>
       <c r="V10" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W10" t="n">
         <v>8.199999999999999</v>
@@ -2312,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>16</v>
@@ -2321,7 +2321,7 @@
         <v>20</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>12</v>
@@ -6134,7 +6134,7 @@
         <v>22</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT31" t="n">
         <v>29</v>
@@ -6143,7 +6143,7 @@
         <v>3</v>
       </c>
       <c r="AV31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW31" t="n">
         <v>17</v>
